--- a/operador_microcomputador/office_e_internet/excel/aula02/ponto_doacao.xlsx
+++ b/operador_microcomputador/office_e_internet/excel/aula02/ponto_doacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\operador_microcomputador\office_e_internet\excel\aula02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB10EA1-647E-4F41-9EB5-249DD14945EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D496B3-79EF-4030-9FFD-3F444F53EF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E3832352-D6F5-4022-9AD1-DE75E4FC0D64}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>Qua</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Peso</t>
+  </si>
+  <si>
+    <t>Resultado</t>
   </si>
 </sst>
 </file>
@@ -233,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,16 +266,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -321,11 +352,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -338,6 +389,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
@@ -347,23 +402,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -675,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6325E3FE-A16A-4288-8274-8B7D6375E4FF}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,121 +822,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12" t="s">
+      <c r="L5" s="14"/>
+      <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="10" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
@@ -826,10 +949,10 @@
       <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="5" t="s">
         <v>10</v>
       </c>
@@ -842,7 +965,7 @@
       <c r="N6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="11"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1447,12 +1570,12 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="4">
         <f>G21+O21</f>
         <v>7.4166666666666679</v>
@@ -1470,12 +1593,12 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="4">
         <f>E23-E24</f>
         <v>8.3333333333334814E-2</v>
@@ -1521,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543AAF75-CDE1-4112-9F2A-B37CB29DE190}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,315 +1657,710 @@
     <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="K2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="19">
         <v>73</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="20">
         <v>26436</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F3" s="19">
+        <f ca="1">TRUNC((TODAY()-D3)/365)</f>
+        <v>50</v>
+      </c>
+      <c r="G3" s="19" t="str">
+        <f ca="1">IF(F3&gt;=18,"Adulto","Criança")</f>
+        <v>Adulto</v>
+      </c>
+      <c r="H3" s="19" t="str">
+        <f>IF(AND(E3="Feminino",C3&gt;=55),"Doadora","Inapta")</f>
+        <v>Inapta</v>
+      </c>
+      <c r="I3" s="19" t="str">
+        <f>IF(AND(E3="Masculino",C3&gt;=50),"Doador","Inapto")</f>
+        <v>Inapto</v>
+      </c>
+      <c r="J3" s="19" t="str">
+        <f>IF(AND(E3="Trans",C3&gt;=50),"Doador","Inapto")</f>
+        <v>Doador</v>
+      </c>
+      <c r="K3" s="19" t="str">
+        <f ca="1">IF(AND(G3="Adulto",OR(H3="Doadora",I3="Doador",J3="Doador")),"Apto/a","Inapto/a")</f>
+        <v>Apto/a</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="21">
         <v>89</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="22">
         <v>40303</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="21">
+        <f t="shared" ref="F4:F17" ca="1" si="0">TRUNC((TODAY()-D4)/365)</f>
+        <v>12</v>
+      </c>
+      <c r="G4" s="21" t="str">
+        <f t="shared" ref="G4:G17" ca="1" si="1">IF(F4&gt;=18,"Adulto","Criança")</f>
+        <v>Criança</v>
+      </c>
+      <c r="H4" s="21" t="str">
+        <f>IF(AND(E4="Feminino",C4&gt;=55),"Doadora","Inapta")</f>
+        <v>Inapta</v>
+      </c>
+      <c r="I4" s="21" t="str">
+        <f t="shared" ref="I4:I17" si="2">IF(AND(E4="Masculino",C4&gt;=50),"Doador","Inapto")</f>
+        <v>Doador</v>
+      </c>
+      <c r="J4" s="21" t="str">
+        <f t="shared" ref="J4:J17" si="3">IF(AND(E4="Trans",C4&gt;=50),"Doador","Inapto")</f>
+        <v>Inapto</v>
+      </c>
+      <c r="K4" s="21" t="str">
+        <f t="shared" ref="K4:K17" ca="1" si="4">IF(AND(G4="Adulto",OR(H4="Doadora",I4="Doador",J4="Doador")),"Apto/a","Inapto/a")</f>
+        <v>Inapto/a</v>
+      </c>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="19">
         <v>124</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="20">
         <v>33643</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F5" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H5" s="19" t="str">
+        <f>IF(AND(E5="Feminino",C5&gt;=55),"Doadora","Inapta")</f>
+        <v>Inapta</v>
+      </c>
+      <c r="I5" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>Doador</v>
+      </c>
+      <c r="J5" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K5" s="19" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Apto/a</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="21">
         <v>46</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="22">
         <v>41646</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F6" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G6" s="21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Criança</v>
+      </c>
+      <c r="H6" s="21" t="str">
+        <f>IF(AND(E6="Feminino",C6&gt;=55),"Doadora","Inapta")</f>
+        <v>Inapta</v>
+      </c>
+      <c r="I6" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>Inapto</v>
+      </c>
+      <c r="J6" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K6" s="21" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Inapto/a</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="19">
         <v>53</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="20">
         <v>34175</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F7" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G7" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H7" s="19" t="str">
+        <f>IF(AND(E7="Feminino",C7&gt;=55),"Doadora","Inapta")</f>
+        <v>Inapta</v>
+      </c>
+      <c r="I7" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>Inapto</v>
+      </c>
+      <c r="J7" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K7" s="19" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Inapto/a</v>
+      </c>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="21">
         <v>54</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="22">
         <v>40506</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F8" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G8" s="21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Criança</v>
+      </c>
+      <c r="H8" s="21" t="str">
+        <f>IF(AND(E8="Feminino",C8&gt;=55),"Doadora","Inapta")</f>
+        <v>Inapta</v>
+      </c>
+      <c r="I8" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>Inapto</v>
+      </c>
+      <c r="J8" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>Doador</v>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Inapto/a</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="19">
         <v>55</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="20">
         <v>37108</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F9" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G9" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H9" s="19" t="str">
+        <f>IF(AND(E9="Feminino",C9&gt;=55),"Doadora","Inapta")</f>
+        <v>Inapta</v>
+      </c>
+      <c r="I9" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>Doador</v>
+      </c>
+      <c r="J9" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K9" s="19" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Apto/a</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="21">
         <v>85</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="22">
         <v>41958</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F10" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Criança</v>
+      </c>
+      <c r="H10" s="21" t="str">
+        <f>IF(AND(E10="Feminino",C10&gt;=55),"Doadora","Inapta")</f>
+        <v>Doadora</v>
+      </c>
+      <c r="I10" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>Inapto</v>
+      </c>
+      <c r="J10" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K10" s="21" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Inapto/a</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="19">
         <v>51</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="20">
         <v>41177</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F11" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G11" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Criança</v>
+      </c>
+      <c r="H11" s="19" t="str">
+        <f>IF(AND(E11="Feminino",C11&gt;=55),"Doadora","Inapta")</f>
+        <v>Inapta</v>
+      </c>
+      <c r="I11" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>Inapto</v>
+      </c>
+      <c r="J11" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K11" s="19" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Inapto/a</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="21">
         <v>84</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="22">
         <v>26000</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="F12" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="G12" s="21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H12" s="21" t="str">
+        <f>IF(AND(E12="Feminino",C12&gt;=55),"Doadora","Inapta")</f>
+        <v>Inapta</v>
+      </c>
+      <c r="I12" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>Doador</v>
+      </c>
+      <c r="J12" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K12" s="21" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Apto/a</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="19">
         <v>68</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="20">
         <v>36939</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="F13" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G13" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H13" s="19" t="str">
+        <f>IF(AND(E13="Feminino",C13&gt;=55),"Doadora","Inapta")</f>
+        <v>Inapta</v>
+      </c>
+      <c r="I13" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>Doador</v>
+      </c>
+      <c r="J13" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K13" s="19" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Apto/a</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="21">
         <v>104</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="22">
         <v>41317</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="F14" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Criança</v>
+      </c>
+      <c r="H14" s="21" t="str">
+        <f>IF(AND(E14="Feminino",C14&gt;=55),"Doadora","Inapta")</f>
+        <v>Doadora</v>
+      </c>
+      <c r="I14" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>Inapto</v>
+      </c>
+      <c r="J14" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K14" s="21" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Inapto/a</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="19">
         <v>81</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="20">
         <v>34198</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F15" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G15" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H15" s="19" t="str">
+        <f>IF(AND(E15="Feminino",C15&gt;=55),"Doadora","Inapta")</f>
+        <v>Inapta</v>
+      </c>
+      <c r="I15" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>Inapto</v>
+      </c>
+      <c r="J15" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>Doador</v>
+      </c>
+      <c r="K15" s="19" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Apto/a</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="21">
         <v>114</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="22">
         <v>38278</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="F16" s="21">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G16" s="21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H16" s="21" t="str">
+        <f>IF(AND(E16="Feminino",C16&gt;=55),"Doadora","Inapta")</f>
+        <v>Doadora</v>
+      </c>
+      <c r="I16" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>Inapto</v>
+      </c>
+      <c r="J16" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K16" s="21" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Apto/a</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="19">
         <v>72</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="20">
         <v>34306</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="19" t="s">
         <v>58</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G17" s="19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H17" s="19" t="str">
+        <f>IF(AND(E17="Feminino",C17&gt;=55),"Doadora","Inapta")</f>
+        <v>Inapta</v>
+      </c>
+      <c r="I17" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>Doador</v>
+      </c>
+      <c r="J17" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K17" s="19" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>Apto/a</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
+  <conditionalFormatting sqref="F2:K17">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"Apto/a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:J17">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"OU(""Doador"";""Doadora"")"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Doador"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Doadora"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/operador_microcomputador/office_e_internet/excel/aula02/ponto_doacao.xlsx
+++ b/operador_microcomputador/office_e_internet/excel/aula02/ponto_doacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\operador_microcomputador\office_e_internet\excel\aula02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D496B3-79EF-4030-9FFD-3F444F53EF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A340F6-BF37-4DA3-84BC-C74F46A21F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{E3832352-D6F5-4022-9AD1-DE75E4FC0D64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{E3832352-D6F5-4022-9AD1-DE75E4FC0D64}"/>
   </bookViews>
   <sheets>
     <sheet name="ponto" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,18 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -399,43 +410,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -455,31 +440,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -798,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6325E3FE-A16A-4288-8274-8B7D6375E4FF}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
@@ -822,121 +782,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="12" t="s">
+      <c r="N5" s="18"/>
+      <c r="O5" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
@@ -949,10 +909,10 @@
       <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="5" t="s">
         <v>10</v>
       </c>
@@ -965,7 +925,7 @@
       <c r="N6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="13"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1570,12 +1530,12 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="4">
         <f>G21+O21</f>
         <v>7.4166666666666679</v>
@@ -1593,12 +1553,12 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="4">
         <f>E23-E24</f>
         <v>8.3333333333334814E-2</v>
@@ -1618,6 +1578,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A2:O2"/>
@@ -1628,12 +1594,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1646,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543AAF75-CDE1-4112-9F2A-B37CB29DE190}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,94 +1626,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="11" t="s">
         <v>66</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="12">
         <v>73</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="13">
         <v>26436</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="12">
         <f ca="1">TRUNC((TODAY()-D3)/365)</f>
         <v>50</v>
       </c>
-      <c r="G3" s="19" t="str">
+      <c r="G3" s="12" t="str">
         <f ca="1">IF(F3&gt;=18,"Adulto","Criança")</f>
         <v>Adulto</v>
       </c>
-      <c r="H3" s="19" t="str">
-        <f>IF(AND(E3="Feminino",C3&gt;=55),"Doadora","Inapta")</f>
+      <c r="H3" s="12" t="str">
+        <f t="shared" ref="H3:H17" si="0">IF(AND(E3="Feminino",C3&gt;=55),"Doadora","Inapta")</f>
         <v>Inapta</v>
       </c>
-      <c r="I3" s="19" t="str">
+      <c r="I3" s="12" t="str">
         <f>IF(AND(E3="Masculino",C3&gt;=50),"Doador","Inapto")</f>
         <v>Inapto</v>
       </c>
-      <c r="J3" s="19" t="str">
+      <c r="J3" s="12" t="str">
         <f>IF(AND(E3="Trans",C3&gt;=50),"Doador","Inapto")</f>
         <v>Doador</v>
       </c>
-      <c r="K3" s="19" t="str">
+      <c r="K3" s="12" t="str">
         <f ca="1">IF(AND(G3="Adulto",OR(H3="Doadora",I3="Doador",J3="Doador")),"Apto/a","Inapto/a")</f>
         <v>Apto/a</v>
       </c>
@@ -1761,582 +1721,582 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="14">
         <v>89</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="15">
         <v>40303</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="21">
-        <f t="shared" ref="F4:F17" ca="1" si="0">TRUNC((TODAY()-D4)/365)</f>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:F17" ca="1" si="1">TRUNC((TODAY()-D4)/365)</f>
         <v>12</v>
       </c>
-      <c r="G4" s="21" t="str">
-        <f t="shared" ref="G4:G17" ca="1" si="1">IF(F4&gt;=18,"Adulto","Criança")</f>
+      <c r="G4" s="14" t="str">
+        <f t="shared" ref="G4:G17" ca="1" si="2">IF(F4&gt;=18,"Adulto","Criança")</f>
         <v>Criança</v>
       </c>
-      <c r="H4" s="21" t="str">
-        <f>IF(AND(E4="Feminino",C4&gt;=55),"Doadora","Inapta")</f>
+      <c r="H4" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>Inapta</v>
       </c>
-      <c r="I4" s="21" t="str">
-        <f t="shared" ref="I4:I17" si="2">IF(AND(E4="Masculino",C4&gt;=50),"Doador","Inapto")</f>
+      <c r="I4" s="14" t="str">
+        <f t="shared" ref="I4:I17" si="3">IF(AND(E4="Masculino",C4&gt;=50),"Doador","Inapto")</f>
         <v>Doador</v>
       </c>
-      <c r="J4" s="21" t="str">
-        <f t="shared" ref="J4:J17" si="3">IF(AND(E4="Trans",C4&gt;=50),"Doador","Inapto")</f>
+      <c r="J4" s="14" t="str">
+        <f t="shared" ref="J4:J17" si="4">IF(AND(E4="Trans",C4&gt;=50),"Doador","Inapto")</f>
         <v>Inapto</v>
       </c>
-      <c r="K4" s="21" t="str">
-        <f t="shared" ref="K4:K17" ca="1" si="4">IF(AND(G4="Adulto",OR(H4="Doadora",I4="Doador",J4="Doador")),"Apto/a","Inapto/a")</f>
+      <c r="K4" s="14" t="str">
+        <f t="shared" ref="K4:K17" ca="1" si="5">IF(AND(G4="Adulto",OR(H4="Doadora",I4="Doador",J4="Doador")),"Apto/a","Inapto/a")</f>
         <v>Inapto/a</v>
       </c>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="12">
         <v>124</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="13">
         <v>33643</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="19">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F5" s="12">
+        <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
-      <c r="G5" s="19" t="str">
+      <c r="G5" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Inapta</v>
+      </c>
+      <c r="I5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Doador</v>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Apto/a</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="14">
+        <v>46</v>
+      </c>
+      <c r="D6" s="15">
+        <v>41646</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>Adulto</v>
-      </c>
-      <c r="H5" s="19" t="str">
-        <f>IF(AND(E5="Feminino",C5&gt;=55),"Doadora","Inapta")</f>
+        <v>9</v>
+      </c>
+      <c r="G6" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Criança</v>
+      </c>
+      <c r="H6" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>Inapta</v>
       </c>
-      <c r="I5" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Doador</v>
-      </c>
-      <c r="J5" s="19" t="str">
+      <c r="I6" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Inapto</v>
       </c>
-      <c r="K5" s="19" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Apto/a</v>
-      </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="21">
-        <v>46</v>
-      </c>
-      <c r="D6" s="22">
-        <v>41646</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G6" s="21" t="str">
+      <c r="J6" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K6" s="14" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Inapto/a</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="12">
+        <v>53</v>
+      </c>
+      <c r="D7" s="13">
+        <v>34175</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>Criança</v>
-      </c>
-      <c r="H6" s="21" t="str">
-        <f>IF(AND(E6="Feminino",C6&gt;=55),"Doadora","Inapta")</f>
+        <v>29</v>
+      </c>
+      <c r="G7" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H7" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>Inapta</v>
       </c>
-      <c r="I6" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Inapto</v>
-      </c>
-      <c r="J6" s="21" t="str">
+      <c r="I7" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Inapto</v>
       </c>
-      <c r="K6" s="21" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J7" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Inapto/a</v>
       </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="19">
-        <v>53</v>
-      </c>
-      <c r="D7" s="20">
-        <v>34175</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="G7" s="19" t="str">
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="14">
+        <v>54</v>
+      </c>
+      <c r="D8" s="15">
+        <v>40506</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>Adulto</v>
-      </c>
-      <c r="H7" s="19" t="str">
-        <f>IF(AND(E7="Feminino",C7&gt;=55),"Doadora","Inapta")</f>
+        <v>12</v>
+      </c>
+      <c r="G8" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Criança</v>
+      </c>
+      <c r="H8" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>Inapta</v>
       </c>
-      <c r="I7" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Inapto</v>
-      </c>
-      <c r="J7" s="19" t="str">
+      <c r="I8" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Inapto</v>
       </c>
-      <c r="K7" s="19" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J8" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>Doador</v>
+      </c>
+      <c r="K8" s="14" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Inapto/a</v>
       </c>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="21">
-        <v>54</v>
-      </c>
-      <c r="D8" s="22">
-        <v>40506</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G8" s="21" t="str">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="12">
+        <v>55</v>
+      </c>
+      <c r="D9" s="13">
+        <v>37108</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>Criança</v>
-      </c>
-      <c r="H8" s="21" t="str">
-        <f>IF(AND(E8="Feminino",C8&gt;=55),"Doadora","Inapta")</f>
+        <v>21</v>
+      </c>
+      <c r="G9" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H9" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>Inapta</v>
       </c>
-      <c r="I8" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Inapto</v>
-      </c>
-      <c r="J8" s="21" t="str">
+      <c r="I9" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Doador</v>
       </c>
-      <c r="K8" s="21" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Inapto/a</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="19">
-        <v>55</v>
-      </c>
-      <c r="D9" s="20">
-        <v>37108</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="G9" s="19" t="str">
+      <c r="J9" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Apto/a</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="14">
+        <v>85</v>
+      </c>
+      <c r="D10" s="15">
+        <v>41958</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>Adulto</v>
-      </c>
-      <c r="H9" s="19" t="str">
-        <f>IF(AND(E9="Feminino",C9&gt;=55),"Doadora","Inapta")</f>
-        <v>Inapta</v>
-      </c>
-      <c r="I9" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Doador</v>
-      </c>
-      <c r="J9" s="19" t="str">
+        <v>8</v>
+      </c>
+      <c r="G10" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Criança</v>
+      </c>
+      <c r="H10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Doadora</v>
+      </c>
+      <c r="I10" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Inapto</v>
       </c>
-      <c r="K9" s="19" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Apto/a</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="21">
-        <v>85</v>
-      </c>
-      <c r="D10" s="22">
-        <v>41958</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="J10" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K10" s="14" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Inapto/a</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="12">
+        <v>51</v>
+      </c>
+      <c r="D11" s="13">
+        <v>41177</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G10" s="21" t="str">
+      <c r="F11" s="12">
         <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G11" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Criança</v>
       </c>
-      <c r="H10" s="21" t="str">
-        <f>IF(AND(E10="Feminino",C10&gt;=55),"Doadora","Inapta")</f>
-        <v>Doadora</v>
-      </c>
-      <c r="I10" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Inapto</v>
-      </c>
-      <c r="J10" s="21" t="str">
+      <c r="H11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Inapta</v>
+      </c>
+      <c r="I11" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Inapto</v>
       </c>
-      <c r="K10" s="21" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J11" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Inapto/a</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="19">
-        <v>51</v>
-      </c>
-      <c r="D11" s="20">
-        <v>41177</v>
-      </c>
-      <c r="E11" s="19" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="14">
+        <v>84</v>
+      </c>
+      <c r="D12" s="15">
+        <v>26000</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="G12" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Inapta</v>
+      </c>
+      <c r="I12" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>Doador</v>
+      </c>
+      <c r="J12" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K12" s="14" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Apto/a</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="12">
+        <v>68</v>
+      </c>
+      <c r="D13" s="13">
+        <v>36939</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G13" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Adulto</v>
+      </c>
+      <c r="H13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Inapta</v>
+      </c>
+      <c r="I13" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Doador</v>
+      </c>
+      <c r="J13" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Apto/a</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="14">
+        <v>104</v>
+      </c>
+      <c r="D14" s="15">
+        <v>41317</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="19">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F14" s="14">
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="G11" s="19" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G14" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Criança</v>
       </c>
-      <c r="H11" s="19" t="str">
-        <f>IF(AND(E11="Feminino",C11&gt;=55),"Doadora","Inapta")</f>
-        <v>Inapta</v>
-      </c>
-      <c r="I11" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Inapto</v>
-      </c>
-      <c r="J11" s="19" t="str">
+      <c r="H14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Doadora</v>
+      </c>
+      <c r="I14" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Inapto</v>
       </c>
-      <c r="K11" s="19" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J14" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K14" s="14" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Inapto/a</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="21">
-        <v>84</v>
-      </c>
-      <c r="D12" s="22">
-        <v>26000</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="G12" s="21" t="str">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="12">
+        <v>81</v>
+      </c>
+      <c r="D15" s="13">
+        <v>34198</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="12">
         <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="G15" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Adulto</v>
       </c>
-      <c r="H12" s="21" t="str">
-        <f>IF(AND(E12="Feminino",C12&gt;=55),"Doadora","Inapta")</f>
+      <c r="H15" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>Inapta</v>
       </c>
-      <c r="I12" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Doador</v>
-      </c>
-      <c r="J12" s="21" t="str">
+      <c r="I15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Inapto</v>
       </c>
-      <c r="K12" s="21" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J15" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>Doador</v>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Apto/a</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="19">
-        <v>68</v>
-      </c>
-      <c r="D13" s="20">
-        <v>36939</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="G13" s="19" t="str">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="14">
+        <v>114</v>
+      </c>
+      <c r="D16" s="15">
+        <v>38278</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="14">
         <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G16" s="14" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Adulto</v>
       </c>
-      <c r="H13" s="19" t="str">
-        <f>IF(AND(E13="Feminino",C13&gt;=55),"Doadora","Inapta")</f>
-        <v>Inapta</v>
-      </c>
-      <c r="I13" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Doador</v>
-      </c>
-      <c r="J13" s="19" t="str">
+      <c r="H16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Doadora</v>
+      </c>
+      <c r="I16" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Inapto</v>
       </c>
-      <c r="K13" s="19" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="J16" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>Inapto</v>
+      </c>
+      <c r="K16" s="14" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Apto/a</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="21">
-        <v>104</v>
-      </c>
-      <c r="D14" s="22">
-        <v>41317</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G14" s="21" t="str">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="12">
+        <v>72</v>
+      </c>
+      <c r="D17" s="13">
+        <v>34306</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>Criança</v>
-      </c>
-      <c r="H14" s="21" t="str">
-        <f>IF(AND(E14="Feminino",C14&gt;=55),"Doadora","Inapta")</f>
-        <v>Doadora</v>
-      </c>
-      <c r="I14" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>Inapto</v>
-      </c>
-      <c r="J14" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Inapto</v>
-      </c>
-      <c r="K14" s="21" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Inapto/a</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="19">
-        <v>81</v>
-      </c>
-      <c r="D15" s="20">
-        <v>34198</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="19">
-        <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="G15" s="19" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="G17" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Adulto</v>
       </c>
-      <c r="H15" s="19" t="str">
-        <f>IF(AND(E15="Feminino",C15&gt;=55),"Doadora","Inapta")</f>
+      <c r="H17" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>Inapta</v>
       </c>
-      <c r="I15" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Inapto</v>
-      </c>
-      <c r="J15" s="19" t="str">
+      <c r="I17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>Doador</v>
       </c>
-      <c r="K15" s="19" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Apto/a</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="21">
-        <v>114</v>
-      </c>
-      <c r="D16" s="22">
-        <v>38278</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G16" s="21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Adulto</v>
-      </c>
-      <c r="H16" s="21" t="str">
-        <f>IF(AND(E16="Feminino",C16&gt;=55),"Doadora","Inapta")</f>
-        <v>Doadora</v>
-      </c>
-      <c r="I16" s="21" t="str">
-        <f t="shared" si="2"/>
+      <c r="J17" s="12" t="str">
+        <f t="shared" si="4"/>
         <v>Inapto</v>
       </c>
-      <c r="J16" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Inapto</v>
-      </c>
-      <c r="K16" s="21" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Apto/a</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="19">
-        <v>72</v>
-      </c>
-      <c r="D17" s="20">
-        <v>34306</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="19">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="G17" s="19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Adulto</v>
-      </c>
-      <c r="H17" s="19" t="str">
-        <f>IF(AND(E17="Feminino",C17&gt;=55),"Doadora","Inapta")</f>
-        <v>Inapta</v>
-      </c>
-      <c r="I17" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Doador</v>
-      </c>
-      <c r="J17" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Inapto</v>
-      </c>
-      <c r="K17" s="19" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="K17" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>Apto/a</v>
       </c>
     </row>
@@ -2345,18 +2305,18 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:K17">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Apto/a"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:J17">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"OU(""Doador"";""Doadora"")"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Doador"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Doadora"</formula>
     </cfRule>
   </conditionalFormatting>
